--- a/热力地图/data/202008/预期市场总量.xlsx
+++ b/热力地图/data/202008/预期市场总量.xlsx
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
